--- a/automation/excel-outputs/LanguageLearningDetails.xlsx
+++ b/automation/excel-outputs/LanguageLearningDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5070" uniqueCount="104">
   <si>
     <t>Language</t>
   </si>
@@ -918,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
